--- a/data/excel_files_reduced/test_excel_2_reduced.xlsx
+++ b/data/excel_files_reduced/test_excel_2_reduced.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrislittle/GitHub/speedsheet/mvp/data/excel_files_clean/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrislittle/GitHub/speedsheet/excel-2-python/data/excel_files_reduced/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF916A7-C264-B24C-92B2-D9E9C24F843B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAC3653-EDAB-2B42-A0C6-689ABC214FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19680" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -381,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="40" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="40" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -494,11 +494,6 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12452,18 +12447,17 @@
   </sheetPr>
   <dimension ref="A1:AA209"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="62"/>
     <col min="2" max="2" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="9" t="s">
@@ -12508,7 +12502,7 @@
       <c r="AA1" s="11"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="61">
+      <c r="A2" s="12">
         <v>44681</v>
       </c>
       <c r="B2" s="11" t="str">
@@ -12557,7 +12551,7 @@
       <c r="AA2" s="11"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="61">
+      <c r="A3" s="12">
         <v>44681</v>
       </c>
       <c r="B3" s="11" t="str">
@@ -12606,7 +12600,7 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="61"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -12635,7 +12629,7 @@
       <c r="AA4" s="11"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="61"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -12664,7 +12658,7 @@
       <c r="AA5" s="11"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="61"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -12693,7 +12687,7 @@
       <c r="AA6" s="11"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="61"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -12722,7 +12716,7 @@
       <c r="AA7" s="11"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="61"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -12751,7 +12745,7 @@
       <c r="AA8" s="11"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="61"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -12780,7 +12774,7 @@
       <c r="AA9" s="11"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="61"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -12809,7 +12803,7 @@
       <c r="AA10" s="11"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="61"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -12838,7 +12832,7 @@
       <c r="AA11" s="11"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="61"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -12867,7 +12861,7 @@
       <c r="AA12" s="11"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="61"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -12896,7 +12890,7 @@
       <c r="AA13" s="11"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="61"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -12925,7 +12919,7 @@
       <c r="AA14" s="11"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="61"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -12954,7 +12948,7 @@
       <c r="AA15" s="11"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="61"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -12983,7 +12977,7 @@
       <c r="AA16" s="11"/>
     </row>
     <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="61"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -13012,7 +13006,7 @@
       <c r="AA17" s="11"/>
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="61"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -13041,7 +13035,7 @@
       <c r="AA18" s="11"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="61"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -13070,7 +13064,7 @@
       <c r="AA19" s="11"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="61"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -13099,7 +13093,7 @@
       <c r="AA20" s="11"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="61"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -13128,7 +13122,7 @@
       <c r="AA21" s="11"/>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="61"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -13157,7 +13151,7 @@
       <c r="AA22" s="11"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="61"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -13186,7 +13180,7 @@
       <c r="AA23" s="11"/>
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="61"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -13215,7 +13209,7 @@
       <c r="AA24" s="11"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="61"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -13244,7 +13238,7 @@
       <c r="AA25" s="11"/>
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="61"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -13273,7 +13267,7 @@
       <c r="AA26" s="11"/>
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="61"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -13302,7 +13296,7 @@
       <c r="AA27" s="11"/>
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="61"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -13331,7 +13325,7 @@
       <c r="AA28" s="11"/>
     </row>
     <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="61"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -13360,7 +13354,7 @@
       <c r="AA29" s="11"/>
     </row>
     <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="61"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
@@ -13389,7 +13383,7 @@
       <c r="AA30" s="11"/>
     </row>
     <row r="31" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A31" s="61"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -13418,7 +13412,7 @@
       <c r="AA31" s="11"/>
     </row>
     <row r="32" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A32" s="61"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="11"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -13447,7 +13441,7 @@
       <c r="AA32" s="11"/>
     </row>
     <row r="33" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A33" s="61"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -13476,7 +13470,7 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A34" s="61"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="11"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -13505,7 +13499,7 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A35" s="61"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="11"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -13534,7 +13528,7 @@
       <c r="AA35" s="11"/>
     </row>
     <row r="36" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A36" s="61"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -13563,7 +13557,7 @@
       <c r="AA36" s="11"/>
     </row>
     <row r="37" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A37" s="61"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="11"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -13592,7 +13586,7 @@
       <c r="AA37" s="11"/>
     </row>
     <row r="38" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A38" s="61"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -13621,7 +13615,7 @@
       <c r="AA38" s="11"/>
     </row>
     <row r="39" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A39" s="61"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="11"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -13650,7 +13644,7 @@
       <c r="AA39" s="11"/>
     </row>
     <row r="40" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A40" s="61"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="11"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -13679,7 +13673,7 @@
       <c r="AA40" s="11"/>
     </row>
     <row r="41" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A41" s="61"/>
+      <c r="A41" s="12"/>
       <c r="B41" s="11"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -13708,7 +13702,7 @@
       <c r="AA41" s="11"/>
     </row>
     <row r="42" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A42" s="61"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="11"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
@@ -13737,7 +13731,7 @@
       <c r="AA42" s="11"/>
     </row>
     <row r="43" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A43" s="61"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="11"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -13766,7 +13760,7 @@
       <c r="AA43" s="11"/>
     </row>
     <row r="44" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A44" s="61"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="11"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -13795,7 +13789,7 @@
       <c r="AA44" s="11"/>
     </row>
     <row r="45" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A45" s="61"/>
+      <c r="A45" s="12"/>
       <c r="B45" s="11"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -13824,7 +13818,7 @@
       <c r="AA45" s="11"/>
     </row>
     <row r="46" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A46" s="61"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="11"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -13853,7 +13847,7 @@
       <c r="AA46" s="11"/>
     </row>
     <row r="47" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A47" s="61"/>
+      <c r="A47" s="12"/>
       <c r="B47" s="11"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -13882,7 +13876,7 @@
       <c r="AA47" s="11"/>
     </row>
     <row r="48" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A48" s="61"/>
+      <c r="A48" s="12"/>
       <c r="B48" s="11"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -13911,7 +13905,7 @@
       <c r="AA48" s="11"/>
     </row>
     <row r="49" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A49" s="61"/>
+      <c r="A49" s="12"/>
       <c r="B49" s="11"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -13940,7 +13934,7 @@
       <c r="AA49" s="11"/>
     </row>
     <row r="50" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A50" s="61"/>
+      <c r="A50" s="12"/>
       <c r="B50" s="11"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
@@ -13969,7 +13963,7 @@
       <c r="AA50" s="11"/>
     </row>
     <row r="51" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A51" s="61"/>
+      <c r="A51" s="12"/>
       <c r="B51" s="11"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
@@ -13998,7 +13992,7 @@
       <c r="AA51" s="11"/>
     </row>
     <row r="52" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A52" s="61"/>
+      <c r="A52" s="12"/>
       <c r="B52" s="11"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -14027,7 +14021,7 @@
       <c r="AA52" s="11"/>
     </row>
     <row r="53" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A53" s="61"/>
+      <c r="A53" s="12"/>
       <c r="B53" s="11"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
@@ -14056,7 +14050,7 @@
       <c r="AA53" s="11"/>
     </row>
     <row r="54" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A54" s="61"/>
+      <c r="A54" s="12"/>
       <c r="B54" s="11"/>
       <c r="C54" s="12"/>
       <c r="D54" s="8"/>
@@ -14085,7 +14079,7 @@
       <c r="AA54" s="11"/>
     </row>
     <row r="55" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A55" s="61"/>
+      <c r="A55" s="12"/>
       <c r="B55" s="11"/>
       <c r="C55" s="12"/>
       <c r="D55" s="8"/>
@@ -14114,7 +14108,7 @@
       <c r="AA55" s="11"/>
     </row>
     <row r="56" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A56" s="61"/>
+      <c r="A56" s="12"/>
       <c r="B56" s="11"/>
       <c r="C56" s="12"/>
       <c r="D56" s="8"/>
@@ -14143,7 +14137,7 @@
       <c r="AA56" s="11"/>
     </row>
     <row r="57" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A57" s="61"/>
+      <c r="A57" s="12"/>
       <c r="B57" s="11"/>
       <c r="C57" s="12"/>
       <c r="D57" s="8"/>
@@ -14172,7 +14166,7 @@
       <c r="AA57" s="11"/>
     </row>
     <row r="58" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A58" s="61"/>
+      <c r="A58" s="12"/>
       <c r="B58" s="11"/>
       <c r="C58" s="12"/>
       <c r="D58" s="8"/>
@@ -14201,7 +14195,7 @@
       <c r="AA58" s="11"/>
     </row>
     <row r="59" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A59" s="61"/>
+      <c r="A59" s="12"/>
       <c r="B59" s="11"/>
       <c r="C59" s="12"/>
       <c r="D59" s="8"/>
@@ -14230,7 +14224,7 @@
       <c r="AA59" s="11"/>
     </row>
     <row r="60" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A60" s="61"/>
+      <c r="A60" s="12"/>
       <c r="B60" s="11"/>
       <c r="C60" s="12"/>
       <c r="D60" s="8"/>
@@ -14259,7 +14253,7 @@
       <c r="AA60" s="11"/>
     </row>
     <row r="61" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A61" s="61"/>
+      <c r="A61" s="12"/>
       <c r="B61" s="11"/>
       <c r="C61" s="12"/>
       <c r="D61" s="8"/>
@@ -14288,7 +14282,7 @@
       <c r="AA61" s="11"/>
     </row>
     <row r="62" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A62" s="61"/>
+      <c r="A62" s="12"/>
       <c r="B62" s="11"/>
       <c r="C62" s="12"/>
       <c r="D62" s="8"/>
@@ -14317,7 +14311,7 @@
       <c r="AA62" s="11"/>
     </row>
     <row r="63" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A63" s="61"/>
+      <c r="A63" s="12"/>
       <c r="B63" s="11"/>
       <c r="C63" s="12"/>
       <c r="D63" s="8"/>
@@ -14346,7 +14340,7 @@
       <c r="AA63" s="11"/>
     </row>
     <row r="64" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A64" s="61"/>
+      <c r="A64" s="12"/>
       <c r="B64" s="11"/>
       <c r="C64" s="12"/>
       <c r="D64" s="8"/>
@@ -14375,7 +14369,7 @@
       <c r="AA64" s="11"/>
     </row>
     <row r="65" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A65" s="61"/>
+      <c r="A65" s="12"/>
       <c r="B65" s="11"/>
       <c r="C65" s="12"/>
       <c r="D65" s="8"/>
@@ -14404,7 +14398,7 @@
       <c r="AA65" s="11"/>
     </row>
     <row r="66" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A66" s="61"/>
+      <c r="A66" s="12"/>
       <c r="B66" s="11"/>
       <c r="C66" s="12"/>
       <c r="D66" s="8"/>
@@ -14433,7 +14427,7 @@
       <c r="AA66" s="11"/>
     </row>
     <row r="67" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A67" s="61"/>
+      <c r="A67" s="12"/>
       <c r="B67" s="11"/>
       <c r="C67" s="12"/>
       <c r="D67" s="8"/>
@@ -14462,7 +14456,7 @@
       <c r="AA67" s="11"/>
     </row>
     <row r="68" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A68" s="61"/>
+      <c r="A68" s="12"/>
       <c r="B68" s="11"/>
       <c r="C68" s="12"/>
       <c r="D68" s="8"/>
@@ -14491,7 +14485,7 @@
       <c r="AA68" s="11"/>
     </row>
     <row r="69" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A69" s="61"/>
+      <c r="A69" s="12"/>
       <c r="B69" s="11"/>
       <c r="C69" s="12"/>
       <c r="D69" s="8"/>
@@ -14520,7 +14514,7 @@
       <c r="AA69" s="11"/>
     </row>
     <row r="70" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A70" s="61"/>
+      <c r="A70" s="12"/>
       <c r="B70" s="11"/>
       <c r="C70" s="12"/>
       <c r="D70" s="8"/>
@@ -14549,7 +14543,7 @@
       <c r="AA70" s="11"/>
     </row>
     <row r="71" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A71" s="61"/>
+      <c r="A71" s="12"/>
       <c r="B71" s="11"/>
       <c r="C71" s="12"/>
       <c r="D71" s="8"/>
@@ -14578,7 +14572,7 @@
       <c r="AA71" s="11"/>
     </row>
     <row r="72" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A72" s="61"/>
+      <c r="A72" s="12"/>
       <c r="B72" s="11"/>
       <c r="C72" s="12"/>
       <c r="D72" s="8"/>
@@ -14607,7 +14601,7 @@
       <c r="AA72" s="11"/>
     </row>
     <row r="73" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A73" s="61"/>
+      <c r="A73" s="12"/>
       <c r="B73" s="11"/>
       <c r="C73" s="12"/>
       <c r="D73" s="8"/>
@@ -14636,7 +14630,7 @@
       <c r="AA73" s="11"/>
     </row>
     <row r="74" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A74" s="61"/>
+      <c r="A74" s="12"/>
       <c r="B74" s="11"/>
       <c r="C74" s="12"/>
       <c r="D74" s="8"/>
@@ -14665,7 +14659,7 @@
       <c r="AA74" s="11"/>
     </row>
     <row r="75" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A75" s="61"/>
+      <c r="A75" s="12"/>
       <c r="B75" s="11"/>
       <c r="C75" s="12"/>
       <c r="D75" s="8"/>
@@ -14694,7 +14688,7 @@
       <c r="AA75" s="11"/>
     </row>
     <row r="76" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A76" s="61"/>
+      <c r="A76" s="12"/>
       <c r="B76" s="11"/>
       <c r="C76" s="12"/>
       <c r="D76" s="8"/>
@@ -14723,7 +14717,7 @@
       <c r="AA76" s="11"/>
     </row>
     <row r="77" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A77" s="61"/>
+      <c r="A77" s="12"/>
       <c r="B77" s="11"/>
       <c r="C77" s="12"/>
       <c r="D77" s="8"/>
@@ -14752,7 +14746,7 @@
       <c r="AA77" s="11"/>
     </row>
     <row r="78" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A78" s="61"/>
+      <c r="A78" s="12"/>
       <c r="B78" s="11"/>
       <c r="C78" s="12"/>
       <c r="D78" s="8"/>
@@ -14781,7 +14775,7 @@
       <c r="AA78" s="11"/>
     </row>
     <row r="79" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A79" s="61"/>
+      <c r="A79" s="12"/>
       <c r="B79" s="11"/>
       <c r="C79" s="12"/>
       <c r="D79" s="8"/>
@@ -14810,7 +14804,7 @@
       <c r="AA79" s="11"/>
     </row>
     <row r="80" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A80" s="61"/>
+      <c r="A80" s="12"/>
       <c r="B80" s="11"/>
       <c r="C80" s="12"/>
       <c r="D80" s="8"/>
@@ -14839,7 +14833,7 @@
       <c r="AA80" s="11"/>
     </row>
     <row r="81" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A81" s="61"/>
+      <c r="A81" s="12"/>
       <c r="B81" s="11"/>
       <c r="C81" s="12"/>
       <c r="D81" s="8"/>
@@ -14868,7 +14862,7 @@
       <c r="AA81" s="11"/>
     </row>
     <row r="82" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A82" s="61"/>
+      <c r="A82" s="12"/>
       <c r="B82" s="11"/>
       <c r="C82" s="12"/>
       <c r="D82" s="8"/>
@@ -14897,7 +14891,7 @@
       <c r="AA82" s="11"/>
     </row>
     <row r="83" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A83" s="61"/>
+      <c r="A83" s="12"/>
       <c r="B83" s="11"/>
       <c r="C83" s="12"/>
       <c r="D83" s="8"/>
@@ -14926,7 +14920,7 @@
       <c r="AA83" s="11"/>
     </row>
     <row r="84" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A84" s="61"/>
+      <c r="A84" s="12"/>
       <c r="B84" s="11"/>
       <c r="C84" s="12"/>
       <c r="D84" s="8"/>
@@ -14955,7 +14949,7 @@
       <c r="AA84" s="11"/>
     </row>
     <row r="85" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A85" s="61"/>
+      <c r="A85" s="12"/>
       <c r="B85" s="11"/>
       <c r="C85" s="12"/>
       <c r="D85" s="8"/>
@@ -14984,7 +14978,7 @@
       <c r="AA85" s="11"/>
     </row>
     <row r="86" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A86" s="61"/>
+      <c r="A86" s="12"/>
       <c r="B86" s="11"/>
       <c r="C86" s="12"/>
       <c r="D86" s="8"/>
@@ -15013,7 +15007,7 @@
       <c r="AA86" s="11"/>
     </row>
     <row r="87" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A87" s="61"/>
+      <c r="A87" s="12"/>
       <c r="B87" s="11"/>
       <c r="C87" s="12"/>
       <c r="D87" s="8"/>
@@ -15042,7 +15036,7 @@
       <c r="AA87" s="11"/>
     </row>
     <row r="88" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A88" s="61"/>
+      <c r="A88" s="12"/>
       <c r="B88" s="11"/>
       <c r="C88" s="12"/>
       <c r="D88" s="8"/>
@@ -15071,7 +15065,7 @@
       <c r="AA88" s="11"/>
     </row>
     <row r="89" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A89" s="61"/>
+      <c r="A89" s="12"/>
       <c r="B89" s="11"/>
       <c r="C89" s="12"/>
       <c r="D89" s="8"/>
@@ -15100,7 +15094,7 @@
       <c r="AA89" s="11"/>
     </row>
     <row r="90" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A90" s="61"/>
+      <c r="A90" s="12"/>
       <c r="B90" s="11"/>
       <c r="C90" s="12"/>
       <c r="D90" s="8"/>
@@ -15129,7 +15123,7 @@
       <c r="AA90" s="11"/>
     </row>
     <row r="91" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A91" s="61"/>
+      <c r="A91" s="12"/>
       <c r="B91" s="11"/>
       <c r="C91" s="12"/>
       <c r="D91" s="8"/>
@@ -15158,7 +15152,7 @@
       <c r="AA91" s="11"/>
     </row>
     <row r="92" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A92" s="61"/>
+      <c r="A92" s="12"/>
       <c r="B92" s="11"/>
       <c r="C92" s="12"/>
       <c r="D92" s="8"/>
@@ -15187,7 +15181,7 @@
       <c r="AA92" s="11"/>
     </row>
     <row r="93" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A93" s="61"/>
+      <c r="A93" s="12"/>
       <c r="B93" s="11"/>
       <c r="C93" s="12"/>
       <c r="D93" s="8"/>
@@ -15216,7 +15210,7 @@
       <c r="AA93" s="11"/>
     </row>
     <row r="94" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A94" s="61"/>
+      <c r="A94" s="12"/>
       <c r="B94" s="11"/>
       <c r="C94" s="12"/>
       <c r="D94" s="8"/>
@@ -15245,7 +15239,7 @@
       <c r="AA94" s="11"/>
     </row>
     <row r="95" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A95" s="61"/>
+      <c r="A95" s="12"/>
       <c r="B95" s="11"/>
       <c r="C95" s="12"/>
       <c r="D95" s="8"/>
@@ -15274,7 +15268,7 @@
       <c r="AA95" s="11"/>
     </row>
     <row r="96" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A96" s="61"/>
+      <c r="A96" s="12"/>
       <c r="B96" s="11"/>
       <c r="C96" s="12"/>
       <c r="D96" s="8"/>
@@ -15303,7 +15297,7 @@
       <c r="AA96" s="11"/>
     </row>
     <row r="97" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A97" s="61"/>
+      <c r="A97" s="12"/>
       <c r="B97" s="11"/>
       <c r="C97" s="12"/>
       <c r="D97" s="8"/>
@@ -15332,7 +15326,7 @@
       <c r="AA97" s="11"/>
     </row>
     <row r="98" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A98" s="61"/>
+      <c r="A98" s="12"/>
       <c r="B98" s="11"/>
       <c r="C98" s="12"/>
       <c r="D98" s="8"/>
@@ -15361,7 +15355,7 @@
       <c r="AA98" s="11"/>
     </row>
     <row r="99" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A99" s="61"/>
+      <c r="A99" s="12"/>
       <c r="B99" s="11"/>
       <c r="C99" s="12"/>
       <c r="D99" s="8"/>
@@ -15390,7 +15384,7 @@
       <c r="AA99" s="11"/>
     </row>
     <row r="100" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A100" s="61"/>
+      <c r="A100" s="12"/>
       <c r="B100" s="11"/>
       <c r="C100" s="12"/>
       <c r="D100" s="8"/>
@@ -15419,7 +15413,7 @@
       <c r="AA100" s="11"/>
     </row>
     <row r="101" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A101" s="61"/>
+      <c r="A101" s="12"/>
       <c r="B101" s="11"/>
       <c r="C101" s="12"/>
       <c r="D101" s="8"/>
@@ -15448,7 +15442,7 @@
       <c r="AA101" s="11"/>
     </row>
     <row r="102" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A102" s="61"/>
+      <c r="A102" s="12"/>
       <c r="B102" s="11"/>
       <c r="C102" s="12"/>
       <c r="D102" s="8"/>
@@ -15477,7 +15471,7 @@
       <c r="AA102" s="11"/>
     </row>
     <row r="103" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A103" s="61"/>
+      <c r="A103" s="12"/>
       <c r="B103" s="11"/>
       <c r="C103" s="12"/>
       <c r="D103" s="8"/>
@@ -15506,7 +15500,7 @@
       <c r="AA103" s="11"/>
     </row>
     <row r="104" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A104" s="61"/>
+      <c r="A104" s="12"/>
       <c r="B104" s="11"/>
       <c r="C104" s="12"/>
       <c r="D104" s="8"/>
@@ -15535,7 +15529,7 @@
       <c r="AA104" s="11"/>
     </row>
     <row r="105" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A105" s="61"/>
+      <c r="A105" s="12"/>
       <c r="B105" s="11"/>
       <c r="C105" s="12"/>
       <c r="D105" s="8"/>
@@ -15564,7 +15558,7 @@
       <c r="AA105" s="11"/>
     </row>
     <row r="106" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A106" s="61"/>
+      <c r="A106" s="12"/>
       <c r="B106" s="11"/>
       <c r="C106" s="12"/>
       <c r="D106" s="14"/>
@@ -15593,7 +15587,7 @@
       <c r="AA106" s="11"/>
     </row>
     <row r="107" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A107" s="61"/>
+      <c r="A107" s="12"/>
       <c r="B107" s="11"/>
       <c r="C107" s="12"/>
       <c r="D107" s="14"/>
@@ -15622,7 +15616,7 @@
       <c r="AA107" s="11"/>
     </row>
     <row r="108" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A108" s="61"/>
+      <c r="A108" s="12"/>
       <c r="B108" s="11"/>
       <c r="C108" s="12"/>
       <c r="D108" s="14"/>
@@ -15651,7 +15645,7 @@
       <c r="AA108" s="11"/>
     </row>
     <row r="109" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A109" s="61"/>
+      <c r="A109" s="12"/>
       <c r="B109" s="11"/>
       <c r="C109" s="12"/>
       <c r="D109" s="14"/>
@@ -15680,7 +15674,7 @@
       <c r="AA109" s="11"/>
     </row>
     <row r="110" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A110" s="61"/>
+      <c r="A110" s="12"/>
       <c r="B110" s="11"/>
       <c r="C110" s="12"/>
       <c r="D110" s="14"/>
@@ -15709,7 +15703,7 @@
       <c r="AA110" s="11"/>
     </row>
     <row r="111" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A111" s="61"/>
+      <c r="A111" s="12"/>
       <c r="B111" s="11"/>
       <c r="C111" s="12"/>
       <c r="D111" s="14"/>
@@ -15738,7 +15732,7 @@
       <c r="AA111" s="11"/>
     </row>
     <row r="112" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A112" s="61"/>
+      <c r="A112" s="12"/>
       <c r="B112" s="11"/>
       <c r="C112" s="12"/>
       <c r="D112" s="14"/>
@@ -15767,7 +15761,7 @@
       <c r="AA112" s="11"/>
     </row>
     <row r="113" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A113" s="61"/>
+      <c r="A113" s="12"/>
       <c r="B113" s="11"/>
       <c r="C113" s="12"/>
       <c r="D113" s="14"/>
@@ -15796,7 +15790,7 @@
       <c r="AA113" s="11"/>
     </row>
     <row r="114" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A114" s="61"/>
+      <c r="A114" s="12"/>
       <c r="B114" s="11"/>
       <c r="C114" s="12"/>
       <c r="D114" s="14"/>
@@ -15825,7 +15819,7 @@
       <c r="AA114" s="11"/>
     </row>
     <row r="115" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A115" s="61"/>
+      <c r="A115" s="12"/>
       <c r="B115" s="11"/>
       <c r="C115" s="12"/>
       <c r="D115" s="14"/>
@@ -15854,7 +15848,7 @@
       <c r="AA115" s="11"/>
     </row>
     <row r="116" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A116" s="61"/>
+      <c r="A116" s="12"/>
       <c r="B116" s="11"/>
       <c r="C116" s="12"/>
       <c r="D116" s="14"/>
@@ -15883,7 +15877,7 @@
       <c r="AA116" s="11"/>
     </row>
     <row r="117" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A117" s="61"/>
+      <c r="A117" s="12"/>
       <c r="B117" s="11"/>
       <c r="C117" s="12"/>
       <c r="D117" s="14"/>
@@ -15912,7 +15906,7 @@
       <c r="AA117" s="11"/>
     </row>
     <row r="118" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A118" s="61"/>
+      <c r="A118" s="12"/>
       <c r="B118" s="11"/>
       <c r="C118" s="12"/>
       <c r="D118" s="14"/>
@@ -15941,7 +15935,7 @@
       <c r="AA118" s="11"/>
     </row>
     <row r="119" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A119" s="61"/>
+      <c r="A119" s="12"/>
       <c r="B119" s="11"/>
       <c r="C119" s="12"/>
       <c r="D119" s="14"/>
@@ -15970,7 +15964,7 @@
       <c r="AA119" s="11"/>
     </row>
     <row r="120" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A120" s="61"/>
+      <c r="A120" s="12"/>
       <c r="B120" s="11"/>
       <c r="C120" s="12"/>
       <c r="D120" s="14"/>
@@ -15999,7 +15993,7 @@
       <c r="AA120" s="11"/>
     </row>
     <row r="121" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A121" s="61"/>
+      <c r="A121" s="12"/>
       <c r="B121" s="11"/>
       <c r="C121" s="12"/>
       <c r="D121" s="14"/>
@@ -16028,7 +16022,7 @@
       <c r="AA121" s="11"/>
     </row>
     <row r="122" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A122" s="61"/>
+      <c r="A122" s="12"/>
       <c r="B122" s="11"/>
       <c r="C122" s="12"/>
       <c r="D122" s="14"/>
@@ -16057,7 +16051,7 @@
       <c r="AA122" s="11"/>
     </row>
     <row r="123" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A123" s="61"/>
+      <c r="A123" s="12"/>
       <c r="B123" s="11"/>
       <c r="C123" s="12"/>
       <c r="D123" s="14"/>
@@ -16086,7 +16080,7 @@
       <c r="AA123" s="11"/>
     </row>
     <row r="124" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A124" s="61"/>
+      <c r="A124" s="12"/>
       <c r="B124" s="11"/>
       <c r="C124" s="12"/>
       <c r="D124" s="14"/>
@@ -16115,7 +16109,7 @@
       <c r="AA124" s="11"/>
     </row>
     <row r="125" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A125" s="61"/>
+      <c r="A125" s="12"/>
       <c r="B125" s="11"/>
       <c r="C125" s="12"/>
       <c r="D125" s="14"/>
@@ -16144,7 +16138,7 @@
       <c r="AA125" s="11"/>
     </row>
     <row r="126" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A126" s="61"/>
+      <c r="A126" s="12"/>
       <c r="B126" s="11"/>
       <c r="C126" s="12"/>
       <c r="D126" s="14"/>
@@ -16173,7 +16167,7 @@
       <c r="AA126" s="11"/>
     </row>
     <row r="127" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A127" s="61"/>
+      <c r="A127" s="12"/>
       <c r="B127" s="11"/>
       <c r="C127" s="12"/>
       <c r="D127" s="14"/>
@@ -16202,7 +16196,7 @@
       <c r="AA127" s="11"/>
     </row>
     <row r="128" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A128" s="61"/>
+      <c r="A128" s="12"/>
       <c r="B128" s="11"/>
       <c r="C128" s="12"/>
       <c r="D128" s="14"/>
@@ -16231,7 +16225,7 @@
       <c r="AA128" s="11"/>
     </row>
     <row r="129" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A129" s="61"/>
+      <c r="A129" s="12"/>
       <c r="B129" s="11"/>
       <c r="C129" s="12"/>
       <c r="D129" s="14"/>
@@ -16260,7 +16254,7 @@
       <c r="AA129" s="11"/>
     </row>
     <row r="130" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A130" s="61"/>
+      <c r="A130" s="12"/>
       <c r="B130" s="11"/>
       <c r="C130" s="12"/>
       <c r="D130" s="14"/>
@@ -16289,7 +16283,7 @@
       <c r="AA130" s="11"/>
     </row>
     <row r="131" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A131" s="61"/>
+      <c r="A131" s="12"/>
       <c r="B131" s="11"/>
       <c r="C131" s="12"/>
       <c r="D131" s="14"/>
@@ -16318,7 +16312,7 @@
       <c r="AA131" s="11"/>
     </row>
     <row r="132" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A132" s="61"/>
+      <c r="A132" s="12"/>
       <c r="B132" s="11"/>
       <c r="C132" s="12"/>
       <c r="D132" s="14"/>
@@ -16347,7 +16341,7 @@
       <c r="AA132" s="11"/>
     </row>
     <row r="133" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A133" s="61"/>
+      <c r="A133" s="12"/>
       <c r="B133" s="11"/>
       <c r="C133" s="12"/>
       <c r="D133" s="14"/>
@@ -16376,7 +16370,7 @@
       <c r="AA133" s="11"/>
     </row>
     <row r="134" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A134" s="61"/>
+      <c r="A134" s="12"/>
       <c r="B134" s="11"/>
       <c r="C134" s="12"/>
       <c r="D134" s="14"/>
@@ -16405,7 +16399,7 @@
       <c r="AA134" s="11"/>
     </row>
     <row r="135" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A135" s="61"/>
+      <c r="A135" s="12"/>
       <c r="B135" s="11"/>
       <c r="C135" s="12"/>
       <c r="D135" s="14"/>
@@ -16434,7 +16428,7 @@
       <c r="AA135" s="11"/>
     </row>
     <row r="136" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A136" s="61"/>
+      <c r="A136" s="12"/>
       <c r="B136" s="11"/>
       <c r="C136" s="12"/>
       <c r="D136" s="14"/>
@@ -16463,7 +16457,7 @@
       <c r="AA136" s="11"/>
     </row>
     <row r="137" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A137" s="61"/>
+      <c r="A137" s="12"/>
       <c r="B137" s="11"/>
       <c r="C137" s="12"/>
       <c r="D137" s="14"/>
@@ -16492,7 +16486,7 @@
       <c r="AA137" s="11"/>
     </row>
     <row r="138" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A138" s="61"/>
+      <c r="A138" s="12"/>
       <c r="B138" s="11"/>
       <c r="C138" s="12"/>
       <c r="D138" s="14"/>
@@ -16521,7 +16515,7 @@
       <c r="AA138" s="11"/>
     </row>
     <row r="139" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A139" s="61"/>
+      <c r="A139" s="12"/>
       <c r="B139" s="11"/>
       <c r="C139" s="12"/>
       <c r="D139" s="14"/>
@@ -16550,7 +16544,7 @@
       <c r="AA139" s="11"/>
     </row>
     <row r="140" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A140" s="61"/>
+      <c r="A140" s="12"/>
       <c r="B140" s="11"/>
       <c r="C140" s="12"/>
       <c r="D140" s="14"/>
@@ -16579,7 +16573,7 @@
       <c r="AA140" s="11"/>
     </row>
     <row r="141" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A141" s="61"/>
+      <c r="A141" s="12"/>
       <c r="B141" s="11"/>
       <c r="C141" s="12"/>
       <c r="D141" s="14"/>
@@ -16608,7 +16602,7 @@
       <c r="AA141" s="11"/>
     </row>
     <row r="142" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A142" s="61"/>
+      <c r="A142" s="12"/>
       <c r="B142" s="11"/>
       <c r="C142" s="12"/>
       <c r="D142" s="14"/>
@@ -16637,7 +16631,7 @@
       <c r="AA142" s="11"/>
     </row>
     <row r="143" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A143" s="61"/>
+      <c r="A143" s="12"/>
       <c r="B143" s="11"/>
       <c r="C143" s="12"/>
       <c r="D143" s="14"/>
@@ -16666,7 +16660,7 @@
       <c r="AA143" s="11"/>
     </row>
     <row r="144" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A144" s="61"/>
+      <c r="A144" s="12"/>
       <c r="B144" s="11"/>
       <c r="C144" s="12"/>
       <c r="D144" s="14"/>
@@ -16695,7 +16689,7 @@
       <c r="AA144" s="11"/>
     </row>
     <row r="145" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A145" s="61"/>
+      <c r="A145" s="12"/>
       <c r="B145" s="11"/>
       <c r="C145" s="12"/>
       <c r="D145" s="14"/>
@@ -16724,7 +16718,7 @@
       <c r="AA145" s="11"/>
     </row>
     <row r="146" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A146" s="61"/>
+      <c r="A146" s="12"/>
       <c r="B146" s="11"/>
       <c r="C146" s="12"/>
       <c r="D146" s="14"/>
@@ -16753,7 +16747,7 @@
       <c r="AA146" s="11"/>
     </row>
     <row r="147" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A147" s="61"/>
+      <c r="A147" s="12"/>
       <c r="B147" s="11"/>
       <c r="C147" s="12"/>
       <c r="D147" s="14"/>
@@ -16782,7 +16776,7 @@
       <c r="AA147" s="11"/>
     </row>
     <row r="148" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A148" s="61"/>
+      <c r="A148" s="12"/>
       <c r="B148" s="11"/>
       <c r="C148" s="12"/>
       <c r="D148" s="14"/>
@@ -16811,7 +16805,7 @@
       <c r="AA148" s="11"/>
     </row>
     <row r="149" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A149" s="61"/>
+      <c r="A149" s="12"/>
       <c r="B149" s="11"/>
       <c r="C149" s="12"/>
       <c r="D149" s="14"/>
@@ -16840,7 +16834,7 @@
       <c r="AA149" s="11"/>
     </row>
     <row r="150" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A150" s="61"/>
+      <c r="A150" s="12"/>
       <c r="B150" s="11"/>
       <c r="C150" s="12"/>
       <c r="D150" s="14"/>
@@ -16869,7 +16863,7 @@
       <c r="AA150" s="11"/>
     </row>
     <row r="151" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A151" s="61"/>
+      <c r="A151" s="12"/>
       <c r="B151" s="11"/>
       <c r="C151" s="12"/>
       <c r="D151" s="14"/>
@@ -16898,7 +16892,7 @@
       <c r="AA151" s="11"/>
     </row>
     <row r="152" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A152" s="61"/>
+      <c r="A152" s="12"/>
       <c r="B152" s="11"/>
       <c r="C152" s="12"/>
       <c r="D152" s="14"/>
@@ -16927,7 +16921,7 @@
       <c r="AA152" s="11"/>
     </row>
     <row r="153" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A153" s="61"/>
+      <c r="A153" s="12"/>
       <c r="B153" s="11"/>
       <c r="C153" s="12"/>
       <c r="D153" s="14"/>
@@ -16956,7 +16950,7 @@
       <c r="AA153" s="11"/>
     </row>
     <row r="154" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A154" s="61"/>
+      <c r="A154" s="12"/>
       <c r="B154" s="11"/>
       <c r="C154" s="12"/>
       <c r="D154" s="14"/>
@@ -16985,7 +16979,7 @@
       <c r="AA154" s="11"/>
     </row>
     <row r="155" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A155" s="61"/>
+      <c r="A155" s="12"/>
       <c r="B155" s="11"/>
       <c r="C155" s="12"/>
       <c r="D155" s="14"/>
@@ -17014,7 +17008,7 @@
       <c r="AA155" s="11"/>
     </row>
     <row r="156" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A156" s="61"/>
+      <c r="A156" s="12"/>
       <c r="B156" s="11"/>
       <c r="C156" s="12"/>
       <c r="D156" s="14"/>
@@ -17043,7 +17037,7 @@
       <c r="AA156" s="11"/>
     </row>
     <row r="157" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A157" s="61"/>
+      <c r="A157" s="12"/>
       <c r="B157" s="11"/>
       <c r="C157" s="12"/>
       <c r="D157" s="14"/>
@@ -17072,7 +17066,7 @@
       <c r="AA157" s="11"/>
     </row>
     <row r="158" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A158" s="61"/>
+      <c r="A158" s="12"/>
       <c r="B158" s="11"/>
       <c r="C158" s="12"/>
       <c r="D158" s="14"/>
@@ -17101,7 +17095,7 @@
       <c r="AA158" s="11"/>
     </row>
     <row r="159" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A159" s="61"/>
+      <c r="A159" s="12"/>
       <c r="B159" s="11"/>
       <c r="C159" s="12"/>
       <c r="D159" s="14"/>
@@ -17130,7 +17124,7 @@
       <c r="AA159" s="11"/>
     </row>
     <row r="160" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A160" s="61"/>
+      <c r="A160" s="12"/>
       <c r="B160" s="11"/>
       <c r="C160" s="12"/>
       <c r="D160" s="14"/>
@@ -17159,7 +17153,7 @@
       <c r="AA160" s="11"/>
     </row>
     <row r="161" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A161" s="61"/>
+      <c r="A161" s="12"/>
       <c r="B161" s="11"/>
       <c r="C161" s="12"/>
       <c r="D161" s="14"/>
@@ -17188,7 +17182,7 @@
       <c r="AA161" s="11"/>
     </row>
     <row r="162" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A162" s="61"/>
+      <c r="A162" s="12"/>
       <c r="B162" s="11"/>
       <c r="C162" s="12"/>
       <c r="D162" s="14"/>
@@ -17217,7 +17211,7 @@
       <c r="AA162" s="11"/>
     </row>
     <row r="163" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A163" s="61"/>
+      <c r="A163" s="12"/>
       <c r="B163" s="11"/>
       <c r="C163" s="12"/>
       <c r="D163" s="14"/>
@@ -17246,7 +17240,7 @@
       <c r="AA163" s="11"/>
     </row>
     <row r="164" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A164" s="61"/>
+      <c r="A164" s="12"/>
       <c r="B164" s="11"/>
       <c r="C164" s="12"/>
       <c r="D164" s="14"/>
@@ -17275,7 +17269,7 @@
       <c r="AA164" s="11"/>
     </row>
     <row r="165" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A165" s="61"/>
+      <c r="A165" s="12"/>
       <c r="B165" s="11"/>
       <c r="C165" s="12"/>
       <c r="D165" s="14"/>
@@ -17304,7 +17298,7 @@
       <c r="AA165" s="11"/>
     </row>
     <row r="166" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A166" s="61"/>
+      <c r="A166" s="12"/>
       <c r="B166" s="11"/>
       <c r="C166" s="12"/>
       <c r="D166" s="14"/>
@@ -17333,7 +17327,7 @@
       <c r="AA166" s="11"/>
     </row>
     <row r="167" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A167" s="61"/>
+      <c r="A167" s="12"/>
       <c r="B167" s="11"/>
       <c r="C167" s="12"/>
       <c r="D167" s="14"/>
@@ -17362,7 +17356,7 @@
       <c r="AA167" s="11"/>
     </row>
     <row r="168" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A168" s="61"/>
+      <c r="A168" s="12"/>
       <c r="B168" s="11"/>
       <c r="C168" s="12"/>
       <c r="D168" s="14"/>
@@ -17391,7 +17385,7 @@
       <c r="AA168" s="11"/>
     </row>
     <row r="169" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A169" s="61"/>
+      <c r="A169" s="12"/>
       <c r="B169" s="11"/>
       <c r="C169" s="12"/>
       <c r="D169" s="14"/>
@@ -17420,7 +17414,7 @@
       <c r="AA169" s="11"/>
     </row>
     <row r="170" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A170" s="61"/>
+      <c r="A170" s="12"/>
       <c r="B170" s="11"/>
       <c r="C170" s="12"/>
       <c r="D170" s="14"/>
@@ -17449,7 +17443,7 @@
       <c r="AA170" s="11"/>
     </row>
     <row r="171" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A171" s="61"/>
+      <c r="A171" s="12"/>
       <c r="B171" s="11"/>
       <c r="C171" s="12"/>
       <c r="D171" s="14"/>
@@ -17478,7 +17472,7 @@
       <c r="AA171" s="11"/>
     </row>
     <row r="172" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A172" s="61"/>
+      <c r="A172" s="12"/>
       <c r="B172" s="11"/>
       <c r="C172" s="12"/>
       <c r="D172" s="14"/>
@@ -17507,7 +17501,7 @@
       <c r="AA172" s="11"/>
     </row>
     <row r="173" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A173" s="61"/>
+      <c r="A173" s="12"/>
       <c r="B173" s="11"/>
       <c r="C173" s="12"/>
       <c r="D173" s="14"/>
@@ -17536,7 +17530,7 @@
       <c r="AA173" s="11"/>
     </row>
     <row r="174" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A174" s="61"/>
+      <c r="A174" s="12"/>
       <c r="B174" s="11"/>
       <c r="C174" s="12"/>
       <c r="D174" s="14"/>
@@ -17565,7 +17559,7 @@
       <c r="AA174" s="11"/>
     </row>
     <row r="175" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A175" s="61"/>
+      <c r="A175" s="12"/>
       <c r="B175" s="11"/>
       <c r="C175" s="12"/>
       <c r="D175" s="14"/>
@@ -17594,7 +17588,7 @@
       <c r="AA175" s="11"/>
     </row>
     <row r="176" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A176" s="61"/>
+      <c r="A176" s="12"/>
       <c r="B176" s="11"/>
       <c r="C176" s="12"/>
       <c r="D176" s="14"/>
@@ -17623,7 +17617,7 @@
       <c r="AA176" s="11"/>
     </row>
     <row r="177" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A177" s="61"/>
+      <c r="A177" s="12"/>
       <c r="B177" s="11"/>
       <c r="C177" s="12"/>
       <c r="D177" s="14"/>
@@ -17652,7 +17646,7 @@
       <c r="AA177" s="11"/>
     </row>
     <row r="178" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A178" s="61"/>
+      <c r="A178" s="12"/>
       <c r="B178" s="11"/>
       <c r="C178" s="12"/>
       <c r="D178" s="14"/>
@@ -17681,7 +17675,7 @@
       <c r="AA178" s="11"/>
     </row>
     <row r="179" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A179" s="61"/>
+      <c r="A179" s="12"/>
       <c r="B179" s="11"/>
       <c r="C179" s="12"/>
       <c r="D179" s="14"/>
@@ -17710,7 +17704,7 @@
       <c r="AA179" s="11"/>
     </row>
     <row r="180" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A180" s="61"/>
+      <c r="A180" s="12"/>
       <c r="B180" s="11"/>
       <c r="C180" s="12"/>
       <c r="D180" s="14"/>
@@ -17739,7 +17733,7 @@
       <c r="AA180" s="11"/>
     </row>
     <row r="181" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A181" s="61"/>
+      <c r="A181" s="12"/>
       <c r="B181" s="11"/>
       <c r="C181" s="12"/>
       <c r="D181" s="14"/>
@@ -17768,7 +17762,7 @@
       <c r="AA181" s="11"/>
     </row>
     <row r="182" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A182" s="61"/>
+      <c r="A182" s="12"/>
       <c r="B182" s="11"/>
       <c r="C182" s="12"/>
       <c r="D182" s="14"/>
@@ -17797,7 +17791,7 @@
       <c r="AA182" s="11"/>
     </row>
     <row r="183" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A183" s="61"/>
+      <c r="A183" s="12"/>
       <c r="B183" s="11"/>
       <c r="C183" s="12"/>
       <c r="D183" s="14"/>
@@ -17826,7 +17820,7 @@
       <c r="AA183" s="11"/>
     </row>
     <row r="184" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A184" s="61"/>
+      <c r="A184" s="12"/>
       <c r="B184" s="11"/>
       <c r="C184" s="12"/>
       <c r="D184" s="14"/>
@@ -17855,7 +17849,7 @@
       <c r="AA184" s="11"/>
     </row>
     <row r="185" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A185" s="61"/>
+      <c r="A185" s="12"/>
       <c r="B185" s="11"/>
       <c r="C185" s="12"/>
       <c r="D185" s="14"/>
@@ -17884,7 +17878,7 @@
       <c r="AA185" s="11"/>
     </row>
     <row r="186" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A186" s="61"/>
+      <c r="A186" s="12"/>
       <c r="B186" s="11"/>
       <c r="C186" s="12"/>
       <c r="D186" s="14"/>
@@ -17913,7 +17907,7 @@
       <c r="AA186" s="11"/>
     </row>
     <row r="187" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A187" s="61"/>
+      <c r="A187" s="12"/>
       <c r="B187" s="11"/>
       <c r="C187" s="12"/>
       <c r="D187" s="14"/>
@@ -17942,7 +17936,7 @@
       <c r="AA187" s="11"/>
     </row>
     <row r="188" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A188" s="61"/>
+      <c r="A188" s="12"/>
       <c r="B188" s="11"/>
       <c r="C188" s="12"/>
       <c r="D188" s="14"/>
@@ -17971,7 +17965,7 @@
       <c r="AA188" s="11"/>
     </row>
     <row r="189" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A189" s="61"/>
+      <c r="A189" s="12"/>
       <c r="B189" s="11"/>
       <c r="C189" s="12"/>
       <c r="D189" s="14"/>
@@ -18000,7 +17994,7 @@
       <c r="AA189" s="11"/>
     </row>
     <row r="190" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A190" s="61"/>
+      <c r="A190" s="12"/>
       <c r="B190" s="11"/>
       <c r="C190" s="12"/>
       <c r="D190" s="14"/>
@@ -18029,7 +18023,7 @@
       <c r="AA190" s="11"/>
     </row>
     <row r="191" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A191" s="61"/>
+      <c r="A191" s="12"/>
       <c r="B191" s="11"/>
       <c r="C191" s="12"/>
       <c r="D191" s="14"/>
@@ -18058,7 +18052,7 @@
       <c r="AA191" s="11"/>
     </row>
     <row r="192" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A192" s="61"/>
+      <c r="A192" s="12"/>
       <c r="B192" s="11"/>
       <c r="C192" s="12"/>
       <c r="D192" s="14"/>
@@ -18087,7 +18081,7 @@
       <c r="AA192" s="11"/>
     </row>
     <row r="193" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A193" s="61"/>
+      <c r="A193" s="12"/>
       <c r="B193" s="11"/>
       <c r="C193" s="12"/>
       <c r="D193" s="14"/>
@@ -18116,7 +18110,7 @@
       <c r="AA193" s="11"/>
     </row>
     <row r="194" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A194" s="61"/>
+      <c r="A194" s="12"/>
       <c r="B194" s="11"/>
       <c r="C194" s="12"/>
       <c r="D194" s="14"/>
@@ -18145,7 +18139,7 @@
       <c r="AA194" s="11"/>
     </row>
     <row r="195" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A195" s="61"/>
+      <c r="A195" s="12"/>
       <c r="B195" s="11"/>
       <c r="C195" s="12"/>
       <c r="D195" s="14"/>
@@ -18174,7 +18168,7 @@
       <c r="AA195" s="11"/>
     </row>
     <row r="196" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A196" s="61"/>
+      <c r="A196" s="12"/>
       <c r="B196" s="11"/>
       <c r="C196" s="12"/>
       <c r="D196" s="14"/>
@@ -18203,7 +18197,7 @@
       <c r="AA196" s="11"/>
     </row>
     <row r="197" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A197" s="61"/>
+      <c r="A197" s="12"/>
       <c r="B197" s="11"/>
       <c r="C197" s="12"/>
       <c r="D197" s="14"/>
@@ -18232,7 +18226,7 @@
       <c r="AA197" s="11"/>
     </row>
     <row r="198" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A198" s="61"/>
+      <c r="A198" s="12"/>
       <c r="B198" s="11"/>
       <c r="C198" s="12"/>
       <c r="D198" s="14"/>
@@ -18261,7 +18255,7 @@
       <c r="AA198" s="11"/>
     </row>
     <row r="199" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A199" s="61"/>
+      <c r="A199" s="12"/>
       <c r="B199" s="11"/>
       <c r="C199" s="12"/>
       <c r="D199" s="14"/>
@@ -18290,7 +18284,7 @@
       <c r="AA199" s="11"/>
     </row>
     <row r="200" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A200" s="61"/>
+      <c r="A200" s="12"/>
       <c r="B200" s="11"/>
       <c r="C200" s="12"/>
       <c r="D200" s="14"/>
@@ -18319,7 +18313,7 @@
       <c r="AA200" s="11"/>
     </row>
     <row r="201" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A201" s="61"/>
+      <c r="A201" s="12"/>
       <c r="B201" s="11"/>
       <c r="C201" s="12"/>
       <c r="D201" s="14"/>
@@ -18348,7 +18342,7 @@
       <c r="AA201" s="11"/>
     </row>
     <row r="202" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A202" s="61"/>
+      <c r="A202" s="12"/>
       <c r="B202" s="11"/>
       <c r="C202" s="12"/>
       <c r="D202" s="14"/>
@@ -18377,7 +18371,7 @@
       <c r="AA202" s="11"/>
     </row>
     <row r="203" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A203" s="61"/>
+      <c r="A203" s="12"/>
       <c r="B203" s="11"/>
       <c r="C203" s="12"/>
       <c r="D203" s="14"/>
@@ -18406,7 +18400,7 @@
       <c r="AA203" s="11"/>
     </row>
     <row r="204" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A204" s="61"/>
+      <c r="A204" s="12"/>
       <c r="B204" s="11"/>
       <c r="C204" s="12"/>
       <c r="D204" s="14"/>
@@ -18435,7 +18429,7 @@
       <c r="AA204" s="11"/>
     </row>
     <row r="205" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A205" s="61"/>
+      <c r="A205" s="12"/>
       <c r="B205" s="11"/>
       <c r="C205" s="12"/>
       <c r="D205" s="14"/>
@@ -18464,7 +18458,7 @@
       <c r="AA205" s="11"/>
     </row>
     <row r="206" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A206" s="61"/>
+      <c r="A206" s="12"/>
       <c r="B206" s="11"/>
       <c r="C206" s="12"/>
       <c r="D206" s="14"/>
@@ -18493,7 +18487,7 @@
       <c r="AA206" s="11"/>
     </row>
     <row r="207" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A207" s="61"/>
+      <c r="A207" s="12"/>
       <c r="B207" s="11"/>
       <c r="C207" s="12"/>
       <c r="D207" s="14"/>
@@ -18522,7 +18516,7 @@
       <c r="AA207" s="11"/>
     </row>
     <row r="208" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A208" s="61"/>
+      <c r="A208" s="12"/>
       <c r="B208" s="11"/>
       <c r="C208" s="12"/>
       <c r="D208" s="14"/>
@@ -18551,7 +18545,7 @@
       <c r="AA208" s="11"/>
     </row>
     <row r="209" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A209" s="61"/>
+      <c r="A209" s="12"/>
       <c r="B209" s="11"/>
       <c r="C209" s="12"/>
       <c r="D209" s="14"/>
@@ -27344,7 +27338,7 @@
   </sheetPr>
   <dimension ref="A1:N996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/data/excel_files_reduced/test_excel_2_reduced.xlsx
+++ b/data/excel_files_reduced/test_excel_2_reduced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrislittle/GitHub/speedsheet/excel-2-python/data/excel_files_reduced/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAC3653-EDAB-2B42-A0C6-689ABC214FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08041977-2EAC-5740-931E-BA76EB67E82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19680" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -12447,8 +12447,8 @@
   </sheetPr>
   <dimension ref="A1:AA209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -26647,7 +26647,7 @@
   <dimension ref="A1:C175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -27338,7 +27338,7 @@
   </sheetPr>
   <dimension ref="A1:N996"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
